--- a/biology/Botanique/Square_Franck-Bauer/Square_Franck-Bauer.xlsx
+++ b/biology/Botanique/Square_Franck-Bauer/Square_Franck-Bauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Franck-Bauer, anciennement square Dupleix, est un square situé place Dupleix, quartier de Grenelle, dans le 15e arrondissement de Paris.
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est accessible par la place Dupleix, dont il occupe le centre. Il est desservi par la ligne 6 à la station Dupleix[1].
-Il est ouvert à des horaires réglementés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est accessible par la place Dupleix, dont il occupe le centre. Il est desservi par la ligne 6 à la station Dupleix.
+Il est ouvert à des horaires réglementés.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est à l'origine connu sous le nom de « square Dupleix » en raison de son voisinage avec la rue et la place éponyme, lesquelles rendent hommage à Joseph François Dupleix (1697-1763), gouverneur général des Établissements français de l'Inde[2].
-En 2019, il prend le nom de Franck Bauer, résistant et dernier speaker de Radio Londres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est à l'origine connu sous le nom de « square Dupleix » en raison de son voisinage avec la rue et la place éponyme, lesquelles rendent hommage à Joseph François Dupleix (1697-1763), gouverneur général des Établissements français de l'Inde.
+En 2019, il prend le nom de Franck Bauer, résistant et dernier speaker de Radio Londres.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square, aménagé en 1921 et planté de marronniers, accueille un kiosque à musique[1],[4].
-Il est équipé d'aires de jeu pour les enfants[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square, aménagé en 1921 et planté de marronniers, accueille un kiosque à musique,.
+Il est équipé d'aires de jeu pour les enfants.
 			Entrée du square.
 			Kiosque.
 			Fleurs.
